--- a/recognized_sets/non_recognized.xlsx
+++ b/recognized_sets/non_recognized.xlsx
@@ -2,21 +2,55 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>agenda</t>
+  </si>
+  <si>
+    <t>nonclass</t>
+  </si>
+  <si>
+    <t>фырпфыпф</t>
+  </si>
+  <si>
+    <t>дообучаться</t>
+  </si>
+  <si>
+    <t>Нет классификации</t>
+  </si>
+  <si>
+    <t>Nan</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +74,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -130,7 +182,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -165,7 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -342,12 +392,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/recognized_sets/non_recognized.xlsx
+++ b/recognized_sets/non_recognized.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\MisaTelegramBot\recognized_sets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +109,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -150,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,9 +195,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,6 +230,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,14 +406,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -420,7 +437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>

--- a/recognized_sets/non_recognized.xlsx
+++ b/recognized_sets/non_recognized.xlsx
@@ -1,71 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\MisaTelegramBot\recognized_sets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>agenda</t>
-  </si>
-  <si>
-    <t>nonclass</t>
-  </si>
-  <si>
-    <t>фырпфыпф</t>
-  </si>
-  <si>
-    <t>дообучаться</t>
-  </si>
-  <si>
-    <t>Нет классификации</t>
-  </si>
-  <si>
-    <t>Nan</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -80,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -163,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,10 +211,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,49 +420,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>agenda</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>nonclass</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>фырпфыпф</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Нет классификации</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>дообучаться</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Нет классификации</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>воу воу</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Нет классификации</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/recognized_sets/non_recognized.xlsx
+++ b/recognized_sets/non_recognized.xlsx
@@ -1,37 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\MisaTelegramBot\recognized_sets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>agenda</t>
+  </si>
+  <si>
+    <t>nonclass</t>
+  </si>
+  <si>
+    <t>фырпфыпф</t>
+  </si>
+  <si>
+    <t>Нет классификации</t>
+  </si>
+  <si>
+    <t>дообучаться</t>
+  </si>
+  <si>
+    <t>воу воу</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +77,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,86 +401,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>agenda</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>nonclass</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>фырпфыпф</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Нет классификации</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Nan</t>
-        </is>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>дообучаться</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Нет классификации</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Nan</t>
-        </is>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>воу воу</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Нет классификации</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>